--- a/sample/BCTT.xlsx
+++ b/sample/BCTT.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$V$33</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
   <si>
     <t>Múi giờ</t>
   </si>
@@ -164,9 +167,6 @@
     <t>liveseo</t>
   </si>
   <si>
-    <t>'4000</t>
-  </si>
-  <si>
     <t>DG 真人</t>
   </si>
   <si>
@@ -179,12 +179,6 @@
     <t>quangcao</t>
   </si>
   <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
     <t>Jili 电子</t>
   </si>
   <si>
@@ -201,6 +195,18 @@
   </si>
   <si>
     <t>fakeuser6</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>PG</t>
   </si>
 </sst>
 </file>
@@ -816,14 +822,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,14 +1370,15 @@
   <sheetPr/>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="10.712962962963" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1565,6 +1575,9 @@
       <c r="R4" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="S4" s="2">
+        <v>7000</v>
+      </c>
       <c r="T4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1698,8 +1711,8 @@
       <c r="R6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>45</v>
+      <c r="S6" s="2">
+        <v>4000</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>27</v>
@@ -1722,19 +1735,19 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
@@ -1766,8 +1779,8 @@
       <c r="R7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>50</v>
+      <c r="S7" s="3">
+        <v>5000</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>27</v>
@@ -1790,7 +1803,7 @@
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="2">
         <v>7000</v>
       </c>
     </row>
@@ -1804,158 +1817,350 @@
       <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="4:19">
+      <c r="S9" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="2">
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="4:19">
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5">
+      <c r="S11" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5">
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5">
+      <c r="S13" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="4:5">
+      <c r="S14" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="4:5">
+      <c r="S15" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="5:5">
+      <c r="S16" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="5:5">
+      <c r="S17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5">
+        <v>54</v>
+      </c>
+      <c r="S18">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5">
+        <v>46</v>
+      </c>
+      <c r="S19">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="5:5">
+      <c r="S20">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="5:5">
+      <c r="S21" s="2">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="5:5">
+      <c r="S22">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
       <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S23">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="5:5">
       <c r="E24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5">
+        <v>46</v>
+      </c>
+      <c r="S24">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="5:5">
+      <c r="S25">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5">
+        <v>52</v>
+      </c>
+      <c r="S26" s="2">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5">
+        <v>54</v>
+      </c>
+      <c r="S27">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5">
+        <v>46</v>
+      </c>
+      <c r="S28">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="5:5">
+      <c r="S29">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="5:5">
+      <c r="S30">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="5:5">
+      <c r="S31" s="2">
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5">
+        <v>54</v>
+      </c>
+      <c r="S32">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="S33" s="3">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:V33" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/sample/BCTT.xlsx
+++ b/sample/BCTT.xlsx
@@ -47,7 +47,7 @@
     <t>nền tảng</t>
   </si>
   <si>
-    <t>tên tk</t>
+    <t>#@$@%</t>
   </si>
   <si>
     <t>cấp độ</t>
@@ -1371,7 +1371,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
